--- a/Data/CDC data/nashdisease2019.xlsx
+++ b/Data/CDC data/nashdisease2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k.simmons/Desktop/NSS/data analytics bootcamp/capstone/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k.simmons/Desktop/NSS/data analytics bootcamp/capstone/Data/CDC data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F75242-B401-7E4E-9226-D8E6536E9536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B338CD1F-EA84-B74A-8D46-DC41FAA5A023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="5520" windowWidth="37440" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7700" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12061,472 +12061,472 @@
     <t>(10.5, 26.8)</t>
   </si>
   <si>
-    <t>(36.34795051870, -86.8675409005)</t>
-  </si>
-  <si>
-    <t>(36.29624214450, -86.8843736030)</t>
-  </si>
-  <si>
-    <t>(36.24886606420, -86.8538782901)</t>
-  </si>
-  <si>
-    <t>(36.25370835670, -86.8036071070)</t>
-  </si>
-  <si>
-    <t>(36.28825140840, -86.7728204615)</t>
-  </si>
-  <si>
-    <t>(36.34497196200, -86.7677653742)</t>
-  </si>
-  <si>
-    <t>(36.29471538310, -86.6911187036)</t>
-  </si>
-  <si>
-    <t>(36.26811952380, -86.6959751266)</t>
-  </si>
-  <si>
-    <t>(36.27293622250, -86.6610202749)</t>
-  </si>
-  <si>
-    <t>(36.22872559040, -86.6339493996)</t>
-  </si>
-  <si>
-    <t>(36.22309005060, -86.6632138216)</t>
-  </si>
-  <si>
-    <t>(36.25336532400, -86.6817557329)</t>
-  </si>
-  <si>
-    <t>(36.25575012510, -86.7050849585)</t>
-  </si>
-  <si>
-    <t>(36.24322098650, -86.7170424941)</t>
-  </si>
-  <si>
-    <t>(36.27584061960, -86.7227516725)</t>
-  </si>
-  <si>
-    <t>(36.25099162440, -86.7318712550)</t>
-  </si>
-  <si>
-    <t>(36.26521492170, -86.7586096067)</t>
-  </si>
-  <si>
-    <t>(36.24933997680, -86.7638027805)</t>
-  </si>
-  <si>
-    <t>(36.23431959110, -86.7732117462)</t>
-  </si>
-  <si>
-    <t>(36.22291638530, -86.7598911314)</t>
-  </si>
-  <si>
-    <t>(36.22499441110, -86.7399718241)</t>
-  </si>
-  <si>
-    <t>(36.22460544750, -86.7196053106)</t>
-  </si>
-  <si>
-    <t>(36.21114547960, -86.7293550121)</t>
-  </si>
-  <si>
-    <t>(36.20213763950, -86.7609246036)</t>
-  </si>
-  <si>
-    <t>(36.19852243040, -86.7337794886)</t>
-  </si>
-  <si>
-    <t>(36.20412540100, -86.7098381564)</t>
-  </si>
-  <si>
-    <t>(36.18346985740, -86.7113792554)</t>
-  </si>
-  <si>
-    <t>(36.18959404920, -86.7439426762)</t>
-  </si>
-  <si>
-    <t>(36.18602234420, -86.7643746828)</t>
-  </si>
-  <si>
-    <t>(36.17908628020, -86.7590618024)</t>
-  </si>
-  <si>
-    <t>(36.18047682230, -86.7383080372)</t>
-  </si>
-  <si>
-    <t>(36.17016881870, -86.7363924126)</t>
-  </si>
-  <si>
-    <t>(36.18712016030, -86.7719899728)</t>
-  </si>
-  <si>
-    <t>(36.22121102540, -86.7946381366)</t>
-  </si>
-  <si>
-    <t>(36.20596534830, -86.7961197587)</t>
-  </si>
-  <si>
-    <t>(36.20802998640, -86.8352588264)</t>
-  </si>
-  <si>
-    <t>(36.19057019500, -86.8553393980)</t>
-  </si>
-  <si>
-    <t>(36.18360013590, -86.8846679987)</t>
-  </si>
-  <si>
-    <t>(36.21561833870, -86.9229922510)</t>
-  </si>
-  <si>
-    <t>(36.15140893980, -86.8836263472)</t>
-  </si>
-  <si>
-    <t>(36.15825005520, -86.8715276437)</t>
-  </si>
-  <si>
-    <t>(36.15978379140, -86.8530700515)</t>
-  </si>
-  <si>
-    <t>(36.14469558130, -86.8426724912)</t>
-  </si>
-  <si>
-    <t>(36.15033109170, -86.8286410961)</t>
-  </si>
-  <si>
-    <t>(36.16393356360, -86.8274060699)</t>
-  </si>
-  <si>
-    <t>(36.17144125940, -86.8285203739)</t>
-  </si>
-  <si>
-    <t>(36.19115118560, -86.8085327041)</t>
-  </si>
-  <si>
-    <t>(36.17565211900, -86.8148045070)</t>
-  </si>
-  <si>
-    <t>(36.17571509340, -86.8056204212)</t>
-  </si>
-  <si>
-    <t>(36.16693232800, -86.8036510368)</t>
-  </si>
-  <si>
-    <t>(36.16124685210, -86.8156490258)</t>
-  </si>
-  <si>
-    <t>(36.15766296450, -86.8057331508)</t>
-  </si>
-  <si>
-    <t>(36.15109655400, -86.7597078621)</t>
-  </si>
-  <si>
-    <t>(36.15628502430, -86.6793913918)</t>
-  </si>
-  <si>
-    <t>(36.17282863310, -86.6903581821)</t>
-  </si>
-  <si>
-    <t>(36.21041229710, -86.6882030885)</t>
-  </si>
-  <si>
-    <t>(36.22694785330, -86.6077806723)</t>
-  </si>
-  <si>
-    <t>(36.19438152600, -86.6421905953)</t>
-  </si>
-  <si>
-    <t>(36.19763241900, -86.6144973804)</t>
-  </si>
-  <si>
-    <t>(36.20594539520, -86.5921345588)</t>
-  </si>
-  <si>
-    <t>(36.17093688670, -86.6444218030)</t>
-  </si>
-  <si>
-    <t>(36.15238565930, -86.6522822722)</t>
-  </si>
-  <si>
-    <t>(36.17196891820, -86.6206020339)</t>
-  </si>
-  <si>
-    <t>(36.14810645300, -86.5856887267)</t>
-  </si>
-  <si>
-    <t>(36.09996204310, -86.6391237760)</t>
-  </si>
-  <si>
-    <t>(36.08866992530, -86.6809974727)</t>
-  </si>
-  <si>
-    <t>(36.08510713470, -86.6579014347)</t>
-  </si>
-  <si>
-    <t>(36.07392221800, -86.6732926633)</t>
-  </si>
-  <si>
-    <t>(36.10170221360, -86.6046378648)</t>
-  </si>
-  <si>
-    <t>(36.08108760550, -86.6188609306)</t>
-  </si>
-  <si>
-    <t>(36.09721282830, -86.5907016995)</t>
-  </si>
-  <si>
-    <t>(36.06968794570, -86.6150485034)</t>
-  </si>
-  <si>
-    <t>(36.18394552210, -86.5833021676)</t>
-  </si>
-  <si>
-    <t>(36.18517401790, -86.6053672734)</t>
-  </si>
-  <si>
-    <t>(36.14573590790, -86.6254409227)</t>
-  </si>
-  <si>
-    <t>(36.12672530140, -86.6343772350)</t>
-  </si>
-  <si>
-    <t>(36.07228897950, -86.6476420172)</t>
-  </si>
-  <si>
-    <t>(36.06275414450, -86.6647320159)</t>
-  </si>
-  <si>
-    <t>(36.05320721570, -86.6572040786)</t>
-  </si>
-  <si>
-    <t>(36.05066825780, -86.6371112264)</t>
-  </si>
-  <si>
-    <t>(36.03003124890, -86.6145110967)</t>
-  </si>
-  <si>
-    <t>(36.08318663780, -86.5615305811)</t>
-  </si>
-  <si>
-    <t>(36.10682588460, -86.7023156259)</t>
-  </si>
-  <si>
-    <t>(36.12313205050, -86.7142265091)</t>
-  </si>
-  <si>
-    <t>(36.13538224570, -86.7150553656)</t>
-  </si>
-  <si>
-    <t>(36.13468284030, -86.7023819538)</t>
-  </si>
-  <si>
-    <t>(36.13609630980, -86.7411039245)</t>
-  </si>
-  <si>
-    <t>(36.14549553630, -86.7638145949)</t>
-  </si>
-  <si>
-    <t>(36.13636921870, -86.7683698189)</t>
-  </si>
-  <si>
-    <t>(36.13994278220, -86.7819906718)</t>
-  </si>
-  <si>
-    <t>(36.14319093870, -86.7899130999)</t>
-  </si>
-  <si>
-    <t>(36.14016827610, -86.7966089777)</t>
-  </si>
-  <si>
-    <t>(36.14578019770, -86.8050873817)</t>
-  </si>
-  <si>
-    <t>(36.14607026350, -86.8156944707)</t>
-  </si>
-  <si>
-    <t>(36.13291727090, -86.8300431737)</t>
-  </si>
-  <si>
-    <t>(36.13504703260, -86.8100174335)</t>
-  </si>
-  <si>
-    <t>(36.12479519370, -86.8014921222)</t>
-  </si>
-  <si>
-    <t>(36.12869486070, -86.7851320823)</t>
-  </si>
-  <si>
-    <t>(36.12031964600, -86.7820995582)</t>
-  </si>
-  <si>
-    <t>(36.12415809400, -86.7550707151)</t>
-  </si>
-  <si>
-    <t>(36.11951786080, -86.7427999612)</t>
-  </si>
-  <si>
-    <t>(36.11330656220, -86.7274177563)</t>
-  </si>
-  <si>
-    <t>(36.10063857230, -86.7268837685)</t>
-  </si>
-  <si>
-    <t>(36.10121395470, -86.7435789922)</t>
-  </si>
-  <si>
-    <t>(36.09711178920, -86.7878147099)</t>
-  </si>
-  <si>
-    <t>(36.09952873730, -86.7996847381)</t>
-  </si>
-  <si>
-    <t>(36.11252025860, -86.7940986863)</t>
-  </si>
-  <si>
-    <t>(36.10825179170, -86.8268057504)</t>
-  </si>
-  <si>
-    <t>(36.09606128080, -86.8261504838)</t>
-  </si>
-  <si>
-    <t>(36.12159721470, -86.8291852595)</t>
-  </si>
-  <si>
-    <t>(36.14396135590, -86.8662660609)</t>
-  </si>
-  <si>
-    <t>(36.12764315810, -86.8678623837)</t>
-  </si>
-  <si>
-    <t>(36.11534571530, -86.8913814952)</t>
-  </si>
-  <si>
-    <t>(36.09731179390, -86.9087171990)</t>
-  </si>
-  <si>
-    <t>(36.11068812870, -86.8763668451)</t>
-  </si>
-  <si>
-    <t>(36.13424442570, -86.9660257669)</t>
-  </si>
-  <si>
-    <t>(36.04013250740, -87.0176548329)</t>
-  </si>
-  <si>
-    <t>(36.08734326160, -86.9326122230)</t>
-  </si>
-  <si>
-    <t>(36.06796305650, -86.8949107152)</t>
-  </si>
-  <si>
-    <t>(36.05218533950, -86.9407121165)</t>
-  </si>
-  <si>
-    <t>(36.06559385240, -86.9777719034)</t>
-  </si>
-  <si>
-    <t>(36.04606470870, -86.9719220455)</t>
-  </si>
-  <si>
-    <t>(36.07159526160, -86.9578354061)</t>
-  </si>
-  <si>
-    <t>(36.07127603390, -86.9382627391)</t>
-  </si>
-  <si>
-    <t>(36.09316279120, -86.8736555705)</t>
-  </si>
-  <si>
-    <t>(36.06090966980, -86.8696928139)</t>
-  </si>
-  <si>
-    <t>(36.07073790040, -86.8228348529)</t>
-  </si>
-  <si>
-    <t>(36.05243041940, -86.8041894006)</t>
-  </si>
-  <si>
-    <t>(36.06099178870, -86.7571314086)</t>
-  </si>
-  <si>
-    <t>(36.04237402500, -86.7688478485)</t>
-  </si>
-  <si>
-    <t>(36.03047021330, -86.7544989419)</t>
-  </si>
-  <si>
-    <t>(36.08423761020, -86.7415232924)</t>
-  </si>
-  <si>
-    <t>(36.07531286530, -86.7434576848)</t>
-  </si>
-  <si>
-    <t>(36.06577867630, -86.7267065082)</t>
-  </si>
-  <si>
-    <t>(36.05936070880, -86.7364092465)</t>
-  </si>
-  <si>
-    <t>(36.07699824560, -86.7054436498)</t>
-  </si>
-  <si>
-    <t>(36.06994504200, -86.7140695527)</t>
-  </si>
-  <si>
-    <t>(36.08481483060, -86.7119860954)</t>
-  </si>
-  <si>
-    <t>(36.08994577410, -86.7174801595)</t>
-  </si>
-  <si>
-    <t>(36.05132495530, -86.7242581580)</t>
-  </si>
-  <si>
-    <t>(36.04494667940, -86.7359377605)</t>
-  </si>
-  <si>
-    <t>(36.07020238480, -86.6951799025)</t>
-  </si>
-  <si>
-    <t>(36.05879840910, -86.6901293191)</t>
-  </si>
-  <si>
-    <t>(36.05179562870, -86.7048611505)</t>
-  </si>
-  <si>
-    <t>(36.04923174800, -86.6797916232)</t>
-  </si>
-  <si>
-    <t>(36.03608526440, -86.6924294734)</t>
-  </si>
-  <si>
-    <t>(35.99960292420, -86.6586366088)</t>
-  </si>
-  <si>
-    <t>(36.01331547710, -86.7176062426)</t>
-  </si>
-  <si>
-    <t>(36.03201241810, -86.7277054628)</t>
-  </si>
-  <si>
-    <t>(36.01921035960, -86.6464353266)</t>
-  </si>
-  <si>
-    <t>(36.03832269920, -86.6692426787)</t>
-  </si>
-  <si>
-    <t>(36.17115317620, -86.7520190910)</t>
-  </si>
-  <si>
-    <t>(36.17114443090, -86.7688652280)</t>
-  </si>
-  <si>
-    <t>(36.17774322020, -86.7901084850)</t>
-  </si>
-  <si>
-    <t>(36.15764352000, -86.7816792716)</t>
-  </si>
-  <si>
-    <t>(36.15383117110, -86.7221674827)</t>
+    <t>36.34795051870, -86.8675409005</t>
+  </si>
+  <si>
+    <t>36.29624214450, -86.8843736030</t>
+  </si>
+  <si>
+    <t>36.24886606420, -86.8538782901</t>
+  </si>
+  <si>
+    <t>36.25370835670, -86.8036071070</t>
+  </si>
+  <si>
+    <t>36.28825140840, -86.7728204615</t>
+  </si>
+  <si>
+    <t>36.34497196200, -86.7677653742</t>
+  </si>
+  <si>
+    <t>36.29471538310, -86.6911187036</t>
+  </si>
+  <si>
+    <t>36.26811952380, -86.6959751266</t>
+  </si>
+  <si>
+    <t>36.27293622250, -86.6610202749</t>
+  </si>
+  <si>
+    <t>36.22872559040, -86.6339493996</t>
+  </si>
+  <si>
+    <t>36.22309005060, -86.6632138216</t>
+  </si>
+  <si>
+    <t>36.25336532400, -86.6817557329</t>
+  </si>
+  <si>
+    <t>36.25575012510, -86.7050849585</t>
+  </si>
+  <si>
+    <t>36.24322098650, -86.7170424941</t>
+  </si>
+  <si>
+    <t>36.27584061960, -86.7227516725</t>
+  </si>
+  <si>
+    <t>36.25099162440, -86.7318712550</t>
+  </si>
+  <si>
+    <t>36.26521492170, -86.7586096067</t>
+  </si>
+  <si>
+    <t>36.24933997680, -86.7638027805</t>
+  </si>
+  <si>
+    <t>36.23431959110, -86.7732117462</t>
+  </si>
+  <si>
+    <t>36.22291638530, -86.7598911314</t>
+  </si>
+  <si>
+    <t>36.22499441110, -86.7399718241</t>
+  </si>
+  <si>
+    <t>36.22460544750, -86.7196053106</t>
+  </si>
+  <si>
+    <t>36.21114547960, -86.7293550121</t>
+  </si>
+  <si>
+    <t>36.20213763950, -86.7609246036</t>
+  </si>
+  <si>
+    <t>36.19852243040, -86.7337794886</t>
+  </si>
+  <si>
+    <t>36.20412540100, -86.7098381564</t>
+  </si>
+  <si>
+    <t>36.18346985740, -86.7113792554</t>
+  </si>
+  <si>
+    <t>36.18959404920, -86.7439426762</t>
+  </si>
+  <si>
+    <t>36.18602234420, -86.7643746828</t>
+  </si>
+  <si>
+    <t>36.17908628020, -86.7590618024</t>
+  </si>
+  <si>
+    <t>36.18047682230, -86.7383080372</t>
+  </si>
+  <si>
+    <t>36.17016881870, -86.7363924126</t>
+  </si>
+  <si>
+    <t>36.18712016030, -86.7719899728</t>
+  </si>
+  <si>
+    <t>36.22121102540, -86.7946381366</t>
+  </si>
+  <si>
+    <t>36.20596534830, -86.7961197587</t>
+  </si>
+  <si>
+    <t>36.20802998640, -86.8352588264</t>
+  </si>
+  <si>
+    <t>36.19057019500, -86.8553393980</t>
+  </si>
+  <si>
+    <t>36.18360013590, -86.8846679987</t>
+  </si>
+  <si>
+    <t>36.21561833870, -86.9229922510</t>
+  </si>
+  <si>
+    <t>36.15140893980, -86.8836263472</t>
+  </si>
+  <si>
+    <t>36.15825005520, -86.8715276437</t>
+  </si>
+  <si>
+    <t>36.15978379140, -86.8530700515</t>
+  </si>
+  <si>
+    <t>36.14469558130, -86.8426724912</t>
+  </si>
+  <si>
+    <t>36.15033109170, -86.8286410961</t>
+  </si>
+  <si>
+    <t>36.16393356360, -86.8274060699</t>
+  </si>
+  <si>
+    <t>36.17144125940, -86.8285203739</t>
+  </si>
+  <si>
+    <t>36.19115118560, -86.8085327041</t>
+  </si>
+  <si>
+    <t>36.17565211900, -86.8148045070</t>
+  </si>
+  <si>
+    <t>36.17571509340, -86.8056204212</t>
+  </si>
+  <si>
+    <t>36.16693232800, -86.8036510368</t>
+  </si>
+  <si>
+    <t>36.16124685210, -86.8156490258</t>
+  </si>
+  <si>
+    <t>36.15766296450, -86.8057331508</t>
+  </si>
+  <si>
+    <t>36.15109655400, -86.7597078621</t>
+  </si>
+  <si>
+    <t>36.15628502430, -86.6793913918</t>
+  </si>
+  <si>
+    <t>36.17282863310, -86.6903581821</t>
+  </si>
+  <si>
+    <t>36.21041229710, -86.6882030885</t>
+  </si>
+  <si>
+    <t>36.22694785330, -86.6077806723</t>
+  </si>
+  <si>
+    <t>36.19438152600, -86.6421905953</t>
+  </si>
+  <si>
+    <t>36.19763241900, -86.6144973804</t>
+  </si>
+  <si>
+    <t>36.20594539520, -86.5921345588</t>
+  </si>
+  <si>
+    <t>36.17093688670, -86.6444218030</t>
+  </si>
+  <si>
+    <t>36.15238565930, -86.6522822722</t>
+  </si>
+  <si>
+    <t>36.17196891820, -86.6206020339</t>
+  </si>
+  <si>
+    <t>36.14810645300, -86.5856887267</t>
+  </si>
+  <si>
+    <t>36.09996204310, -86.6391237760</t>
+  </si>
+  <si>
+    <t>36.08866992530, -86.6809974727</t>
+  </si>
+  <si>
+    <t>36.08510713470, -86.6579014347</t>
+  </si>
+  <si>
+    <t>36.07392221800, -86.6732926633</t>
+  </si>
+  <si>
+    <t>36.10170221360, -86.6046378648</t>
+  </si>
+  <si>
+    <t>36.08108760550, -86.6188609306</t>
+  </si>
+  <si>
+    <t>36.09721282830, -86.5907016995</t>
+  </si>
+  <si>
+    <t>36.06968794570, -86.6150485034</t>
+  </si>
+  <si>
+    <t>36.18394552210, -86.5833021676</t>
+  </si>
+  <si>
+    <t>36.18517401790, -86.6053672734</t>
+  </si>
+  <si>
+    <t>36.14573590790, -86.6254409227</t>
+  </si>
+  <si>
+    <t>36.12672530140, -86.6343772350</t>
+  </si>
+  <si>
+    <t>36.07228897950, -86.6476420172</t>
+  </si>
+  <si>
+    <t>36.06275414450, -86.6647320159</t>
+  </si>
+  <si>
+    <t>36.05320721570, -86.6572040786</t>
+  </si>
+  <si>
+    <t>36.05066825780, -86.6371112264</t>
+  </si>
+  <si>
+    <t>36.03003124890, -86.6145110967</t>
+  </si>
+  <si>
+    <t>36.08318663780, -86.5615305811</t>
+  </si>
+  <si>
+    <t>36.10682588460, -86.7023156259</t>
+  </si>
+  <si>
+    <t>36.12313205050, -86.7142265091</t>
+  </si>
+  <si>
+    <t>36.13538224570, -86.7150553656</t>
+  </si>
+  <si>
+    <t>36.13468284030, -86.7023819538</t>
+  </si>
+  <si>
+    <t>36.13609630980, -86.7411039245</t>
+  </si>
+  <si>
+    <t>36.14549553630, -86.7638145949</t>
+  </si>
+  <si>
+    <t>36.13636921870, -86.7683698189</t>
+  </si>
+  <si>
+    <t>36.13994278220, -86.7819906718</t>
+  </si>
+  <si>
+    <t>36.14319093870, -86.7899130999</t>
+  </si>
+  <si>
+    <t>36.14016827610, -86.7966089777</t>
+  </si>
+  <si>
+    <t>36.14578019770, -86.8050873817</t>
+  </si>
+  <si>
+    <t>36.14607026350, -86.8156944707</t>
+  </si>
+  <si>
+    <t>36.13291727090, -86.8300431737</t>
+  </si>
+  <si>
+    <t>36.13504703260, -86.8100174335</t>
+  </si>
+  <si>
+    <t>36.12479519370, -86.8014921222</t>
+  </si>
+  <si>
+    <t>36.12869486070, -86.7851320823</t>
+  </si>
+  <si>
+    <t>36.12031964600, -86.7820995582</t>
+  </si>
+  <si>
+    <t>36.12415809400, -86.7550707151</t>
+  </si>
+  <si>
+    <t>36.11951786080, -86.7427999612</t>
+  </si>
+  <si>
+    <t>36.11330656220, -86.7274177563</t>
+  </si>
+  <si>
+    <t>36.10063857230, -86.7268837685</t>
+  </si>
+  <si>
+    <t>36.10121395470, -86.7435789922</t>
+  </si>
+  <si>
+    <t>36.09711178920, -86.7878147099</t>
+  </si>
+  <si>
+    <t>36.09952873730, -86.7996847381</t>
+  </si>
+  <si>
+    <t>36.11252025860, -86.7940986863</t>
+  </si>
+  <si>
+    <t>36.10825179170, -86.8268057504</t>
+  </si>
+  <si>
+    <t>36.09606128080, -86.8261504838</t>
+  </si>
+  <si>
+    <t>36.12159721470, -86.8291852595</t>
+  </si>
+  <si>
+    <t>36.14396135590, -86.8662660609</t>
+  </si>
+  <si>
+    <t>36.12764315810, -86.8678623837</t>
+  </si>
+  <si>
+    <t>36.11534571530, -86.8913814952</t>
+  </si>
+  <si>
+    <t>36.09731179390, -86.9087171990</t>
+  </si>
+  <si>
+    <t>36.11068812870, -86.8763668451</t>
+  </si>
+  <si>
+    <t>36.13424442570, -86.9660257669</t>
+  </si>
+  <si>
+    <t>36.04013250740, -87.0176548329</t>
+  </si>
+  <si>
+    <t>36.08734326160, -86.9326122230</t>
+  </si>
+  <si>
+    <t>36.06796305650, -86.8949107152</t>
+  </si>
+  <si>
+    <t>36.05218533950, -86.9407121165</t>
+  </si>
+  <si>
+    <t>36.06559385240, -86.9777719034</t>
+  </si>
+  <si>
+    <t>36.04606470870, -86.9719220455</t>
+  </si>
+  <si>
+    <t>36.07159526160, -86.9578354061</t>
+  </si>
+  <si>
+    <t>36.07127603390, -86.9382627391</t>
+  </si>
+  <si>
+    <t>36.09316279120, -86.8736555705</t>
+  </si>
+  <si>
+    <t>36.06090966980, -86.8696928139</t>
+  </si>
+  <si>
+    <t>36.07073790040, -86.8228348529</t>
+  </si>
+  <si>
+    <t>36.05243041940, -86.8041894006</t>
+  </si>
+  <si>
+    <t>36.06099178870, -86.7571314086</t>
+  </si>
+  <si>
+    <t>36.04237402500, -86.7688478485</t>
+  </si>
+  <si>
+    <t>36.03047021330, -86.7544989419</t>
+  </si>
+  <si>
+    <t>36.08423761020, -86.7415232924</t>
+  </si>
+  <si>
+    <t>36.07531286530, -86.7434576848</t>
+  </si>
+  <si>
+    <t>36.06577867630, -86.7267065082</t>
+  </si>
+  <si>
+    <t>36.05936070880, -86.7364092465</t>
+  </si>
+  <si>
+    <t>36.07699824560, -86.7054436498</t>
+  </si>
+  <si>
+    <t>36.06994504200, -86.7140695527</t>
+  </si>
+  <si>
+    <t>36.08481483060, -86.7119860954</t>
+  </si>
+  <si>
+    <t>36.08994577410, -86.7174801595</t>
+  </si>
+  <si>
+    <t>36.05132495530, -86.7242581580</t>
+  </si>
+  <si>
+    <t>36.04494667940, -86.7359377605</t>
+  </si>
+  <si>
+    <t>36.07020238480, -86.6951799025</t>
+  </si>
+  <si>
+    <t>36.05879840910, -86.6901293191</t>
+  </si>
+  <si>
+    <t>36.05179562870, -86.7048611505</t>
+  </si>
+  <si>
+    <t>36.04923174800, -86.6797916232</t>
+  </si>
+  <si>
+    <t>36.03608526440, -86.6924294734</t>
+  </si>
+  <si>
+    <t>35.99960292420, -86.6586366088</t>
+  </si>
+  <si>
+    <t>36.01331547710, -86.7176062426</t>
+  </si>
+  <si>
+    <t>36.03201241810, -86.7277054628</t>
+  </si>
+  <si>
+    <t>36.01921035960, -86.6464353266</t>
+  </si>
+  <si>
+    <t>36.03832269920, -86.6692426787</t>
+  </si>
+  <si>
+    <t>36.17115317620, -86.7520190910</t>
+  </si>
+  <si>
+    <t>36.17114443090, -86.7688652280</t>
+  </si>
+  <si>
+    <t>36.17774322020, -86.7901084850</t>
+  </si>
+  <si>
+    <t>36.15764352000, -86.7816792716</t>
+  </si>
+  <si>
+    <t>36.15383117110, -86.7221674827</t>
   </si>
 </sst>
 </file>
@@ -12930,8 +12930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BG1" sqref="BG1:BG1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="BL1" sqref="BL1:BL1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
